--- a/Course 2 - Statistics Essentials/Investment Assignment/Investments.xlsx
+++ b/Course 2 - Statistics Essentials/Investment Assignment/Investments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\PG Diploma in Machine Learning and AI\Course 2 - Statistics Essentials\Investment Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04737657-63C6-4539-977B-B5553297C64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D457AB8-F1D3-48A9-9AF3-75E5609131C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>C1</t>
   </si>
@@ -388,6 +388,39 @@
   </si>
   <si>
     <t>IND</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Social, Finance, Analytics, Advertising</t>
+  </si>
+  <si>
+    <t>News, Search and Messaging</t>
+  </si>
+  <si>
+    <t>Cleantech / Semiconductors</t>
+  </si>
+  <si>
+    <t>Gemvara</t>
+  </si>
+  <si>
+    <t>EnvironmentIQ</t>
+  </si>
+  <si>
+    <t>iPolicy Networks</t>
+  </si>
+  <si>
+    <t>Liquid Light</t>
+  </si>
+  <si>
+    <t>Anadigm</t>
+  </si>
+  <si>
+    <t>Mobile2Win India</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
   </si>
 </sst>
 </file>
@@ -604,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,6 +734,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1258,7 +1292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1353,17 +1387,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="3" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,9 +1442,15 @@
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="15">
+        <v>11149</v>
+      </c>
+      <c r="D5" s="15">
+        <v>577</v>
+      </c>
+      <c r="E5" s="15">
+        <v>299</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -1420,9 +1459,15 @@
       <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="15">
+        <v>99661524549</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5028704358</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2683537552</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -1431,9 +1476,15 @@
       <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -1442,9 +1493,15 @@
       <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -1453,9 +1510,15 @@
       <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
@@ -1464,9 +1527,15 @@
       <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="15">
+        <v>2923</v>
+      </c>
+      <c r="D10" s="34">
+        <v>143</v>
+      </c>
+      <c r="E10" s="15">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -1475,9 +1544,15 @@
       <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="15">
+        <v>2297</v>
+      </c>
+      <c r="D11" s="15">
+        <v>127</v>
+      </c>
+      <c r="E11" s="15">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
@@ -1486,9 +1561,15 @@
       <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="15">
+        <v>1912</v>
+      </c>
+      <c r="D12" s="15">
+        <v>98</v>
+      </c>
+      <c r="E12" s="15">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
@@ -1497,9 +1578,15 @@
       <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
@@ -1508,9 +1595,15 @@
       <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1527,7 +1620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E14">
+  <conditionalFormatting sqref="A10:C10 A11:E14 A5:E9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
